--- a/12-9-19-hand-low2.xlsx
+++ b/12-9-19-hand-low2.xlsx
@@ -1143,19 +1143,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03195772286967019</v>
+        <v>0.0319577169548928</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9680422771303299</v>
+        <v>0.9680422830451072</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1308919622430851</v>
+        <v>0.1308919638972024</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1174892380049043</v>
+        <v>0.1174892394901019</v>
       </c>
       <c r="F2" t="n">
-        <v>1.000000000016325</v>
+        <v>1.000000012653811</v>
       </c>
     </row>
     <row r="3">
@@ -1163,19 +1163,19 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>0.07239632942846375</v>
+        <v>0.07239632389454509</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9276036705715363</v>
+        <v>0.9276036761054549</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1832417814286652</v>
+        <v>0.1832417838001254</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1832417814280149</v>
+        <v>0.1832417838001255</v>
       </c>
       <c r="F3" t="n">
-        <v>1.000000000016628</v>
+        <v>1.000000012958805</v>
       </c>
     </row>
     <row r="4">
@@ -1183,19 +1183,19 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1318331594874678</v>
+        <v>0.1318331540479674</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8681668405125322</v>
+        <v>0.8681668459520326</v>
       </c>
       <c r="D4" t="n">
-        <v>0.234181441293226</v>
+        <v>0.2341814447531521</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2441561592686961</v>
+        <v>0.2441561628770219</v>
       </c>
       <c r="F4" t="n">
-        <v>1.000000000015988</v>
+        <v>1.000000014791544</v>
       </c>
     </row>
     <row r="5">
@@ -1203,19 +1203,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>0.2399845040698451</v>
+        <v>0.2399844962906698</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7600154959301549</v>
+        <v>0.7600155037093302</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2907194534282903</v>
+        <v>0.2907194621260702</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3128484318036865</v>
+        <v>0.3128484411651622</v>
       </c>
       <c r="F5" t="n">
-        <v>1.000000000014948</v>
+        <v>1.000000029935121</v>
       </c>
     </row>
     <row r="6">
@@ -1223,19 +1223,19 @@
         <v>20</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4026653949825477</v>
+        <v>0.4026653914699028</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5973346050174523</v>
+        <v>0.5973346085300972</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3353295843589059</v>
+        <v>0.3353295964603961</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3578827245437874</v>
+        <v>0.3578827374612724</v>
       </c>
       <c r="F6" t="n">
-        <v>1.000000000014209</v>
+        <v>1.000000036105547</v>
       </c>
     </row>
     <row r="7">
@@ -1243,19 +1243,19 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>0.595209358656101</v>
+        <v>0.595209362105164</v>
       </c>
       <c r="C7" t="n">
-        <v>0.404790641343899</v>
+        <v>0.404790637894836</v>
       </c>
       <c r="D7" t="n">
-        <v>0.3362080477543569</v>
+        <v>0.3362080599338601</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3576301534498865</v>
+        <v>0.3576301664075221</v>
       </c>
       <c r="F7" t="n">
-        <v>1.000000000014183</v>
+        <v>1.000000036243268</v>
       </c>
     </row>
     <row r="8">
@@ -1263,19 +1263,19 @@
         <v>30</v>
       </c>
       <c r="B8" t="n">
-        <v>0.7657547001309444</v>
+        <v>0.7657547082411102</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2342452998690557</v>
+        <v>0.2342452917588898</v>
       </c>
       <c r="D8" t="n">
-        <v>0.2921633784912369</v>
+        <v>0.2921633874073292</v>
       </c>
       <c r="E8" t="n">
-        <v>0.3066186550657766</v>
+        <v>0.3066186644246282</v>
       </c>
       <c r="F8" t="n">
-        <v>1.000000000014895</v>
+        <v>1.000000030534371</v>
       </c>
     </row>
     <row r="9">
@@ -1283,19 +1283,19 @@
         <v>35</v>
       </c>
       <c r="B9" t="n">
-        <v>0.8745765545409399</v>
+        <v>0.8745765612119358</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1254234454590601</v>
+        <v>0.1254234387880642</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2326431349602127</v>
+        <v>0.2326431391034549</v>
       </c>
       <c r="E9" t="n">
-        <v>0.235732001544177</v>
+        <v>0.2357320057434654</v>
       </c>
       <c r="F9" t="n">
-        <v>1.000000000015803</v>
+        <v>1.000000017826212</v>
       </c>
     </row>
     <row r="10">
@@ -1303,19 +1303,19 @@
         <v>40</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9345487928300459</v>
+        <v>0.9345487983603951</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06545120716995412</v>
+        <v>0.06545120163960499</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1787894589872597</v>
+        <v>0.17878946126265</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1708849788987677</v>
+        <v>0.1708849810741935</v>
       </c>
       <c r="F10" t="n">
-        <v>1.000000000016479</v>
+        <v>1.000000012743559</v>
       </c>
     </row>
     <row r="11">
@@ -1323,19 +1323,19 @@
         <v>45</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9710274026417218</v>
+        <v>0.9710274085896926</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02897259735827812</v>
+        <v>0.02897259141030739</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1318960552681282</v>
+        <v>0.1318960569336657</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1036176460523241</v>
+        <v>0.1036176473611805</v>
       </c>
       <c r="F11" t="n">
-        <v>1.000000000016249</v>
+        <v>1.000000012644072</v>
       </c>
     </row>
     <row r="12">
@@ -1343,19 +1343,19 @@
         <v>50</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9896564189797641</v>
+        <v>0.9896564335015323</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01034358102023597</v>
+        <v>0.01034356649846768</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09193053704271913</v>
+        <v>0.09193053976910827</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0422536118981372</v>
+        <v>0.04225361315147533</v>
       </c>
       <c r="F12" t="n">
-        <v>1.000000000014975</v>
+        <v>1.000000029672069</v>
       </c>
     </row>
     <row r="13">
@@ -1363,19 +1363,19 @@
         <v>55</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9965825505061998</v>
+        <v>0.9965825710048957</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00341744949380024</v>
+        <v>0.003417428995104332</v>
       </c>
       <c r="D13" t="n">
-        <v>0.05009260457142407</v>
+        <v>0.0500926066392234</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.02994163499950253</v>
+        <v>-0.02994163623566942</v>
       </c>
       <c r="F13" t="n">
-        <v>1.00000000001287</v>
+        <v>1.000000041292427</v>
       </c>
     </row>
     <row r="14">
@@ -1383,19 +1383,19 @@
         <v>60</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9834114050327181</v>
+        <v>0.9834114052313538</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01658859496728188</v>
+        <v>0.01658859476864621</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01330978538085676</v>
+        <v>0.01330978538632581</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1270285916743557</v>
+        <v>-0.1270285917270937</v>
       </c>
       <c r="F14" t="n">
-        <v>1.000000000010723</v>
+        <v>1.000000000421902</v>
       </c>
     </row>
     <row r="15">
@@ -1403,19 +1403,19 @@
         <v>65</v>
       </c>
       <c r="B15" t="n">
-        <v>0.8289417397842143</v>
+        <v>0.8289417396902176</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1710582602157858</v>
+        <v>0.1710582603097824</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.04285508581695751</v>
+        <v>-0.04285508580471149</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.3741133167321183</v>
+        <v>-0.3741133166195083</v>
       </c>
       <c r="F15" t="n">
-        <v>1.000000000617902</v>
+        <v>1.000000000323609</v>
       </c>
     </row>
     <row r="16">
@@ -1423,19 +1423,19 @@
         <v>70</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1409255955074072</v>
+        <v>0.1409255956229355</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8590744044925929</v>
+        <v>0.8590744043770645</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.03785422938927944</v>
+        <v>-0.03785422937710028</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3458795016806892</v>
+        <v>-0.3458795015656183</v>
       </c>
       <c r="F16" t="n">
-        <v>1.000000000654497</v>
+        <v>1.000000000327516</v>
       </c>
     </row>
     <row r="17">
@@ -1443,19 +1443,19 @@
         <v>75</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01388107522296345</v>
+        <v>0.01388107502130842</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9861189247770366</v>
+        <v>0.9861189249786916</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02126770295899533</v>
+        <v>0.02126770296781773</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1150481455300424</v>
+        <v>-0.1150481455782903</v>
       </c>
       <c r="F17" t="n">
-        <v>1.000000000010872</v>
+        <v>1.000000000425939</v>
       </c>
     </row>
     <row r="18">
@@ -1463,19 +1463,19 @@
         <v>80</v>
       </c>
       <c r="B18" t="n">
-        <v>0.003921096220675213</v>
+        <v>0.003921076041582261</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9960789037793247</v>
+        <v>0.9960789239584178</v>
       </c>
       <c r="D18" t="n">
-        <v>0.05838635389023474</v>
+        <v>0.05838635626522726</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.02228799926006529</v>
+        <v>-0.02228800016681976</v>
       </c>
       <c r="F18" t="n">
-        <v>1.000000000013018</v>
+        <v>1.000000040690216</v>
       </c>
     </row>
     <row r="19">
@@ -1483,19 +1483,19 @@
         <v>85</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01315289994537755</v>
+        <v>0.01315288625693672</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9868471000546224</v>
+        <v>0.9868471137430632</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1007269862181978</v>
+        <v>0.100726989050289</v>
       </c>
       <c r="E19" t="n">
-        <v>0.05323509578610077</v>
+        <v>0.05323509728315708</v>
       </c>
       <c r="F19" t="n">
-        <v>1.000000000015104</v>
+        <v>1.000000028131671</v>
       </c>
     </row>
     <row r="20">
@@ -1503,19 +1503,19 @@
         <v>90</v>
       </c>
       <c r="B20" t="n">
-        <v>0.03191359228832502</v>
+        <v>0.03191358637262259</v>
       </c>
       <c r="C20" t="n">
-        <v>0.968086407711675</v>
+        <v>0.9680864136273775</v>
       </c>
       <c r="D20" t="n">
-        <v>0.137099944814363</v>
+        <v>0.1370999465470398</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1099941819172384</v>
+        <v>0.1099941833077759</v>
       </c>
       <c r="F20" t="n">
-        <v>1.000000000016328</v>
+        <v>1.000000012654572</v>
       </c>
     </row>
   </sheetData>
